--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori2/17/word_level_error_type_summary_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori2/17/word_level_error_type_summary_17.xlsx
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>error_type</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>count</t>
@@ -447,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -467,13 +472,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_E</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
       <c r="B5" t="n">

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori2/17/word_level_error_type_summary_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori2/17/word_level_error_type_summary_17.xlsx
@@ -434,11 +434,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>error_type</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>count</t>
@@ -452,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -472,13 +467,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
       <c r="B5" t="n">
